--- a/Team-Data/2008-09/4-11-2008-09.xlsx
+++ b/Team-Data/2008-09/4-11-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -780,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>20</v>
@@ -813,13 +880,13 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
         <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -869,64 +936,64 @@
         <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -953,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -983,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.438</v>
+        <v>0.443</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1060,31 +1127,31 @@
         <v>16.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
         <v>17.6</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
         <v>39.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1102,13 +1169,13 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC4" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>14</v>
@@ -1153,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1180,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1227,31 +1294,31 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
@@ -1266,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,22 +1342,22 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1317,13 +1384,13 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,22 +1399,22 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
         <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
         <v>18.5</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
@@ -1448,7 +1515,7 @@
         <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1523,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1684,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1708,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1878,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1970,16 +2037,16 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
         <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
@@ -1988,16 +2055,16 @@
         <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U9" t="n">
         <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
@@ -2012,25 +2079,25 @@
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
@@ -2084,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.363</v>
+        <v>0.354</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,10 +2207,10 @@
         <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>6.8</v>
@@ -2152,13 +2219,13 @@
         <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O10" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P10" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q10" t="n">
         <v>0.792</v>
@@ -2179,7 +2246,7 @@
         <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
         <v>6.4</v>
@@ -2188,19 +2255,19 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>14</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -2388,13 +2455,13 @@
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>24</v>
@@ -2427,16 +2494,16 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>0.438</v>
+        <v>0.43</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2516,7 +2583,7 @@
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O12" t="n">
         <v>18.5</v>
@@ -2525,19 +2592,19 @@
         <v>22.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
         <v>14.5</v>
@@ -2555,28 +2622,28 @@
         <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
         <v>104.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2609,16 +2676,16 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
         <v>23</v>
@@ -2633,13 +2700,13 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>0.238</v>
+        <v>0.241</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2689,25 +2756,25 @@
         <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
@@ -2719,13 +2786,13 @@
         <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>5.9</v>
@@ -2740,13 +2807,13 @@
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2767,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -2782,13 +2849,13 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>23</v>
@@ -2797,10 +2864,10 @@
         <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,16 +2944,16 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O14" t="n">
         <v>19.7</v>
       </c>
       <c r="P14" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.768</v>
@@ -2895,16 +2962,16 @@
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2955,13 +3022,13 @@
         <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2994,10 +3061,10 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-5.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -3128,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3466,19 @@
         <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.418</v>
+        <v>0.405</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
         <v>82.2</v>
@@ -3423,34 +3490,34 @@
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N17" t="n">
         <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3459,22 +3526,22 @@
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3510,16 +3577,16 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,28 +3663,28 @@
         <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P18" t="n">
         <v>24</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3653,10 +3720,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -3677,19 +3744,19 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3698,28 +3765,28 @@
         <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
         <v>21.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O19" t="n">
         <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S19" t="n">
         <v>29.5</v>
@@ -3811,13 +3878,13 @@
         <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V19" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3832,25 +3899,25 @@
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3859,16 +3926,16 @@
         <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3880,13 +3947,13 @@
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3898,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3907,7 +3974,7 @@
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4032,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4047,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
         <v>17</v>
@@ -4056,7 +4123,7 @@
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4256,10 +4323,10 @@
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" t="n">
-        <v>0.275</v>
+        <v>0.278</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,16 +4400,16 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
         <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.785</v>
@@ -4369,22 +4436,22 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
         <v>96.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,10 +4463,10 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4441,16 +4508,16 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.725</v>
+        <v>0.734</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4509,13 +4576,13 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
         <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.382</v>
@@ -4527,22 +4594,22 @@
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
@@ -4560,13 +4627,13 @@
         <v>22.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,19 +4654,19 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4632,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4802,7 +4869,7 @@
         <v>23</v>
       </c>
       <c r="AV24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="n">
         <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4873,22 +4940,22 @@
         <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
         <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
         <v>20.2</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q25" t="n">
         <v>0.745</v>
@@ -4897,16 +4964,16 @@
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W25" t="n">
         <v>7.1</v>
@@ -4927,10 +4994,10 @@
         <v>109.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -4996,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>4</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -5037,55 +5104,55 @@
         <v>79</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.658</v>
+        <v>0.646</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.766</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T26" t="n">
         <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5103,31 +5170,31 @@
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="n">
         <v>6</v>
       </c>
-      <c r="AF26" t="n">
-        <v>5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5181,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5336,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
@@ -5351,7 +5418,7 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>7</v>
       </c>
-      <c r="AG28" t="n">
-        <v>8</v>
-      </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5685,16 +5752,16 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5715,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
         <v>47</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>38.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.475</v>
@@ -5789,16 +5856,16 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.771</v>
@@ -5807,7 +5874,7 @@
         <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
         <v>41</v>
@@ -5816,19 +5883,19 @@
         <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
         <v>23.9</v>
@@ -5837,10 +5904,10 @@
         <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5864,13 +5931,13 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
@@ -5903,7 +5970,7 @@
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
@@ -6028,10 +6095,10 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2008-09</t>
+          <t>2009-04-11</t>
         </is>
       </c>
     </row>
